--- a/InputData/plcy-ctrl-ctr/BIEfIE/Boolean Include Emissions from Imported Electricity.xlsx
+++ b/InputData/plcy-ctrl-ctr/BIEfIE/Boolean Include Emissions from Imported Electricity.xlsx
@@ -734,13 +734,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A991FE2-8B72-407B-8843-ACA6629C938D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BF8BF54-CF15-4BED-91F4-3E86EC1ED4A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A27F2CB-FC9B-4FAE-975F-656D0CA40695}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4143FFAF-B6A5-495A-BE3F-C1B96E7CA39E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25BC085C-E851-4F79-A83F-714B1A69D441}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812F96C6-91BE-436C-AF6A-FE6D8159D9C0}"/>
 </file>